--- a/biology/Botanique/Dregea_sinensis/Dregea_sinensis.xlsx
+++ b/biology/Botanique/Dregea_sinensis/Dregea_sinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La drégée de Chine - Dregea sinensis - est une espèce de plante à fleurs de la famille des Apocynacées originaire de Chine.
 Nom chinois : 苦绳
@@ -512,12 +524,14 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comme le genre, cette espèce appartient à la sous-famille Asclepiadoideae, tribu Marsdenieae.
-William Botting Hemsley décrit cette espèce en 1889 à partir d'échantillons  collectés par Henry et Faber en Chine dans le Hubei[1].
-En 1923, Otto Stapf la place dans le genre Wattakaka publié par Justus Carl Hasskarl en 1857[2].
-En 1998, Ralf Omlor, dans sa thèse, publie une révision des genres de la tribu Marsdenieae[3] : la place dans le genre Dregea est confirmée.
+William Botting Hemsley décrit cette espèce en 1889 à partir d'échantillons  collectés par Henry et Faber en Chine dans le Hubei.
+En 1923, Otto Stapf la place dans le genre Wattakaka publié par Justus Carl Hasskarl en 1857.
+En 1998, Ralf Omlor, dans sa thèse, publie une révision des genres de la tribu Marsdenieae : la place dans le genre Dregea est confirmée.
 Dregea sinensis compte donc un synonyme :
 Wattakaka sinensis (Hemsl.) Stapf (1923)
 Elle compte aussi une variété botanique :
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une liane, caduque, à feuilles cordées.
 Sa floraison est estivale et légèrement parfumée.
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dregea sinensis est originaire de Chine (Gansu, Guangxi, Guizhou, Hubei, Hunan, Jiangsu, Shaanxi, Shanxi, Sichuan, Xizang, Yunnan, Zhejiang). Son habitat d'origine est un milieu forestier ouvert.
 La Drégée de Chine s'est largement diffusée comme plante ornementale grimpante dans l'ensemble des pays à climat tempéré. Elle exige une exposition ensoleillée et un substrat pas trop humide. Elle résiste à des températures de -15 °C.
